--- a/AAJC Vis/case_studies/renter_owner_tables.xlsx
+++ b/AAJC Vis/case_studies/renter_owner_tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anamkhan/Documents/Demo Advisors/AAJC/AAJC Vis/case_studies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5AC161-92C8-304C-841A-81CC03E5E6F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC6AE9B-8CA8-5F47-9D6A-DCB85BF0E256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17220" activeTab="4" xr2:uid="{91470E62-D5E9-4045-A6B4-09E3E42B05F6}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17220" activeTab="5" xr2:uid="{91470E62-D5E9-4045-A6B4-09E3E42B05F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Los Angeles CA" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="35">
   <si>
     <t>Region</t>
   </si>
@@ -233,6 +233,9 @@
   </si>
   <si>
     <t>Maui County</t>
+  </si>
+  <si>
+    <t>Benton County</t>
   </si>
 </sst>
 </file>
@@ -488,9 +491,9 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -530,15 +533,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -924,48 +926,48 @@
     <col min="9" max="9" width="10.83203125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:9" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="21" t="s">
+    <row r="1" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="23"/>
-    </row>
-    <row r="3" spans="2:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="29" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="22"/>
+    </row>
+    <row r="3" spans="2:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="26"/>
-    </row>
-    <row r="4" spans="2:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="30"/>
-      <c r="C4" s="27" t="s">
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+    </row>
+    <row r="4" spans="2:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="29"/>
+      <c r="C4" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="27" t="s">
+      <c r="D4" s="27"/>
+      <c r="E4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="27" t="s">
+      <c r="F4" s="27"/>
+      <c r="G4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="28"/>
-    </row>
-    <row r="5" spans="2:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="31"/>
+      <c r="H4" s="27"/>
+    </row>
+    <row r="5" spans="2:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="30"/>
       <c r="C5" s="12" t="s">
         <v>7</v>
       </c>
@@ -985,8 +987,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="18" t="s">
+    <row r="6" spans="2:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="17" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="9">
@@ -1011,8 +1013,8 @@
         <v>0.60031880925901127</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="19" t="s">
+    <row r="7" spans="2:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="5">
@@ -1037,7 +1039,7 @@
         <v>0.39968119074098873</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1061,58 +1063,57 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="16"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="15"/>
-    </row>
-    <row r="10" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="21" t="s">
+    <row r="9" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+    </row>
+    <row r="10" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="23"/>
-    </row>
-    <row r="12" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="29" t="s">
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="22"/>
+    </row>
+    <row r="12" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="26"/>
-    </row>
-    <row r="13" spans="2:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="30"/>
-      <c r="C13" s="27" t="s">
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="25"/>
+    </row>
+    <row r="13" spans="2:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="29"/>
+      <c r="C13" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="27" t="s">
+      <c r="D13" s="27"/>
+      <c r="E13" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="27" t="s">
+      <c r="F13" s="27"/>
+      <c r="G13" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="H13" s="28"/>
-    </row>
-    <row r="14" spans="2:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="31"/>
+      <c r="H13" s="27"/>
+    </row>
+    <row r="14" spans="2:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="30"/>
       <c r="C14" s="12" t="s">
         <v>7</v>
       </c>
@@ -1132,8 +1133,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="18" t="s">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="17" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="9">
@@ -1158,8 +1159,8 @@
         <v>0.41628295726794884</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="19" t="s">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="5">
@@ -1256,48 +1257,48 @@
     <col min="9" max="9" width="10.83203125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:9" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="21" t="s">
+    <row r="1" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="23"/>
-    </row>
-    <row r="3" spans="2:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="29" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="22"/>
+    </row>
+    <row r="3" spans="2:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="26"/>
-    </row>
-    <row r="4" spans="2:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="30"/>
-      <c r="C4" s="27" t="s">
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+    </row>
+    <row r="4" spans="2:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="29"/>
+      <c r="C4" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="27" t="s">
+      <c r="D4" s="27"/>
+      <c r="E4" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="27" t="s">
+      <c r="F4" s="27"/>
+      <c r="G4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="28"/>
-    </row>
-    <row r="5" spans="2:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="31"/>
+      <c r="H4" s="27"/>
+    </row>
+    <row r="5" spans="2:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="30"/>
       <c r="C5" s="12" t="s">
         <v>7</v>
       </c>
@@ -1317,8 +1318,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="18" t="s">
+    <row r="6" spans="2:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="17" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="9">
@@ -1335,7 +1336,7 @@
         <f>E6/$E$8</f>
         <v>0.636794511033144</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="19">
         <v>3572810</v>
       </c>
       <c r="H6" s="4">
@@ -1343,8 +1344,8 @@
         <v>0.60031880925901127</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="19" t="s">
+    <row r="7" spans="2:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="5">
@@ -1369,7 +1370,7 @@
         <v>0.39968119074098873</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1392,15 +1393,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="16"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="15"/>
+    <row r="9" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1436,48 +1436,48 @@
     <col min="9" max="9" width="10.83203125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:9" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="21" t="s">
+    <row r="1" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="23"/>
-    </row>
-    <row r="3" spans="2:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="29" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="22"/>
+    </row>
+    <row r="3" spans="2:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="26"/>
-    </row>
-    <row r="4" spans="2:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="30"/>
-      <c r="C4" s="27" t="s">
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+    </row>
+    <row r="4" spans="2:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="29"/>
+      <c r="C4" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="27" t="s">
+      <c r="D4" s="27"/>
+      <c r="E4" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="27" t="s">
+      <c r="F4" s="27"/>
+      <c r="G4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="28"/>
-    </row>
-    <row r="5" spans="2:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="31"/>
+      <c r="H4" s="27"/>
+    </row>
+    <row r="5" spans="2:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="30"/>
       <c r="C5" s="12" t="s">
         <v>7</v>
       </c>
@@ -1497,8 +1497,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="18" t="s">
+    <row r="6" spans="2:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="17" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="9">
@@ -1515,7 +1515,7 @@
         <f>E6/$E$8</f>
         <v>0.61705699943463144</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="19">
         <v>3572810</v>
       </c>
       <c r="H6" s="4">
@@ -1523,8 +1523,8 @@
         <v>0.60031880925901127</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="19" t="s">
+    <row r="7" spans="2:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="5">
@@ -1549,7 +1549,7 @@
         <v>0.39968119074098873</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1572,15 +1572,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="16"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="15"/>
+    <row r="9" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1616,88 +1615,88 @@
     <col min="19" max="19" width="10.83203125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:19" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="21" t="s">
+    <row r="1" spans="2:18" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:18" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="23"/>
-    </row>
-    <row r="3" spans="2:19" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="29" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="22"/>
+    </row>
+    <row r="3" spans="2:18" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="26"/>
-    </row>
-    <row r="4" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="30"/>
-      <c r="C4" s="32" t="s">
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="25"/>
+    </row>
+    <row r="4" spans="2:18" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="29"/>
+      <c r="C4" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="32" t="s">
+      <c r="D4" s="32"/>
+      <c r="E4" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="32" t="s">
+      <c r="F4" s="34"/>
+      <c r="G4" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="35"/>
-      <c r="I4" s="32" t="s">
+      <c r="H4" s="34"/>
+      <c r="I4" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="35"/>
-      <c r="K4" s="32" t="s">
+      <c r="J4" s="34"/>
+      <c r="K4" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="35"/>
-      <c r="M4" s="27" t="s">
+      <c r="L4" s="34"/>
+      <c r="M4" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="28"/>
-      <c r="O4" s="27" t="s">
+      <c r="N4" s="27"/>
+      <c r="O4" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="34" t="s">
+      <c r="P4" s="27"/>
+      <c r="Q4" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="R4" s="28"/>
-    </row>
-    <row r="5" spans="2:19" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="31"/>
+      <c r="R4" s="27"/>
+    </row>
+    <row r="5" spans="2:18" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="30"/>
       <c r="C5" s="12" t="s">
         <v>7</v>
       </c>
@@ -1747,8 +1746,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:19" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="18" t="s">
+    <row r="6" spans="2:18" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="17" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="9">
@@ -1765,7 +1764,7 @@
         <f>E6/$E$8</f>
         <v>0.42846725973457778</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="19">
         <v>21631</v>
       </c>
       <c r="H6" s="4">
@@ -1800,7 +1799,7 @@
         <f>O6/$O$8</f>
         <v>0.49223329941599159</v>
       </c>
-      <c r="Q6" s="20">
+      <c r="Q6" s="19">
         <v>3572810</v>
       </c>
       <c r="R6" s="4">
@@ -1808,8 +1807,8 @@
         <v>0.60031880925901127</v>
       </c>
     </row>
-    <row r="7" spans="2:19" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="19" t="s">
+    <row r="7" spans="2:18" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="5">
@@ -1869,7 +1868,7 @@
         <v>0.39968119074098873</v>
       </c>
     </row>
-    <row r="8" spans="2:19" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:18" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1922,25 +1921,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:19" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="16"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="15"/>
+    <row r="9" spans="2:18" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1964,7 +1962,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3896472F-F37A-EB4C-B8BB-56D9E7B9CCE4}">
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -1980,78 +1978,78 @@
   <sheetData>
     <row r="1" spans="2:16" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:16" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="23"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="22"/>
     </row>
     <row r="3" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="26"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="25"/>
     </row>
     <row r="4" spans="2:16" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="30"/>
-      <c r="C4" s="27" t="s">
+      <c r="B4" s="29"/>
+      <c r="C4" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="27" t="s">
+      <c r="D4" s="27"/>
+      <c r="E4" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="27" t="s">
+      <c r="F4" s="27"/>
+      <c r="G4" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="34"/>
-      <c r="I4" s="27" t="s">
+      <c r="H4" s="33"/>
+      <c r="I4" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="28"/>
-      <c r="K4" s="27" t="s">
+      <c r="J4" s="27"/>
+      <c r="K4" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="27" t="s">
+      <c r="L4" s="27"/>
+      <c r="M4" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="28"/>
-      <c r="O4" s="34" t="s">
+      <c r="N4" s="27"/>
+      <c r="O4" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="P4" s="28"/>
+      <c r="P4" s="27"/>
     </row>
     <row r="5" spans="2:16" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="31"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="12" t="s">
         <v>7</v>
       </c>
@@ -2096,7 +2094,7 @@
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="9">
@@ -2150,7 +2148,7 @@
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="5">
@@ -2270,10 +2268,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BFB1186-6E8B-284A-8381-A71EBDABA3D2}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2281,121 +2279,156 @@
     <col min="1" max="1" width="10.83203125" style="14"/>
     <col min="2" max="2" width="26.33203125" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.83203125" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="14"/>
+    <col min="4" max="6" width="10.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="21" t="s">
+    <row r="1" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
-    </row>
-    <row r="3" spans="2:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="29" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="22"/>
+    </row>
+    <row r="3" spans="2:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="26"/>
-    </row>
-    <row r="4" spans="2:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="30"/>
-      <c r="C4" s="27" t="s">
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+    </row>
+    <row r="4" spans="2:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="29"/>
+      <c r="C4" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="27"/>
+      <c r="E4" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="27" t="s">
+      <c r="F4" s="27"/>
+      <c r="G4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="28"/>
-    </row>
-    <row r="5" spans="2:6" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="31"/>
+      <c r="H4" s="27"/>
+    </row>
+    <row r="5" spans="2:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="30"/>
       <c r="C5" s="12" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="18" t="s">
+      <c r="G5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="17" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="9">
-        <v>116</v>
+        <v>9</v>
       </c>
       <c r="D6" s="4">
         <f>C6/$C$8</f>
-        <v>5.5369928400954657E-2</v>
-      </c>
-      <c r="E6" s="3">
-        <v>68981</v>
+        <v>2.4193548387096774E-2</v>
+      </c>
+      <c r="E6" s="9">
+        <v>116</v>
       </c>
       <c r="F6" s="4">
         <f>E6/$E$8</f>
+        <v>5.5369928400954657E-2</v>
+      </c>
+      <c r="G6" s="3">
+        <v>68981</v>
+      </c>
+      <c r="H6" s="4">
+        <f>G6/$G$8</f>
         <v>0.41628295726794884</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B7" s="19" t="s">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="5">
-        <v>1979</v>
+        <v>363</v>
       </c>
       <c r="D7" s="7">
         <f>C7/$C$8</f>
-        <v>0.94463007159904533</v>
-      </c>
-      <c r="E7" s="6">
-        <v>96726</v>
+        <v>0.97580645161290325</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1979</v>
       </c>
       <c r="F7" s="7">
         <f>E7/$E$8</f>
+        <v>0.94463007159904533</v>
+      </c>
+      <c r="G7" s="6">
+        <v>96726</v>
+      </c>
+      <c r="H7" s="7">
+        <f>G7/$G$8</f>
         <v>0.58371704273205116</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="11">
+        <v>372</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="11">
         <v>2095</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="8">
+      <c r="F8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="8">
         <v>165707</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="H8" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B2:F2"/>
+  <mergeCells count="6">
+    <mergeCell ref="B2:H2"/>
     <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C3:H3"/>
     <mergeCell ref="C4:D4"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="E4:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2407,7 +2440,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2420,54 +2453,54 @@
   <sheetData>
     <row r="1" spans="2:10" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="23"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="22"/>
     </row>
     <row r="3" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="26"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="25"/>
     </row>
     <row r="4" spans="2:10" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="30"/>
-      <c r="C4" s="27" t="s">
+      <c r="B4" s="29"/>
+      <c r="C4" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="27" t="s">
+      <c r="D4" s="27"/>
+      <c r="E4" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="27" t="s">
+      <c r="F4" s="27"/>
+      <c r="G4" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="28"/>
-      <c r="I4" s="27" t="s">
+      <c r="H4" s="27"/>
+      <c r="I4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="28"/>
+      <c r="J4" s="27"/>
     </row>
     <row r="5" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="31"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="12" t="s">
         <v>7</v>
       </c>
@@ -2494,7 +2527,7 @@
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="9">
@@ -2504,7 +2537,7 @@
         <f>C6/$C$8</f>
         <v>0.45417898414404728</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="19">
         <v>476</v>
       </c>
       <c r="F6" s="4">
@@ -2518,7 +2551,7 @@
         <f>G6/$G$8</f>
         <v>0.4552967693463561</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="19">
         <v>68981</v>
       </c>
       <c r="J6" s="4">
@@ -2527,7 +2560,7 @@
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="5">
